--- a/router_connection/ZTE/routers_1.xlsx
+++ b/router_connection/ZTE/routers_1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>192.168.50.1</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>192.168.50.4</t>
+  </si>
+  <si>
+    <t>cisco_ios</t>
   </si>
 </sst>
 </file>
@@ -353,33 +356,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.21875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/router_connection/ZTE/routers_1.xlsx
+++ b/router_connection/ZTE/routers_1.xlsx
@@ -134,7 +134,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/router_connection/ZTE/routers_1.xlsx
+++ b/router_connection/ZTE/routers_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">192.168.50.1</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">192.168.50.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cisco_ios_telnet</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B4"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -171,7 +174,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/router_connection/ZTE/routers_1.xlsx
+++ b/router_connection/ZTE/routers_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,18 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t xml:space="preserve">10.254.172.95</t>
+    <t xml:space="preserve">192.168.50.1</t>
   </si>
   <si>
     <t xml:space="preserve">cisco_ios</t>
   </si>
   <si>
-    <t xml:space="preserve">10.254.172.96</t>
+    <t xml:space="preserve">192.168.50.2</t>
   </si>
   <si>
-    <t xml:space="preserve">10.254.172.97</t>
+    <t xml:space="preserve">192.168.50.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.50.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cisco_ios_telnet</t>
   </si>
 </sst>
 </file>
@@ -128,15 +134,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -163,10 +170,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/router_connection/ZTE/routers_1.xlsx
+++ b/router_connection/ZTE/routers_1.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">192.168.50.1</t>
   </si>
@@ -28,16 +29,7 @@
     <t xml:space="preserve">cisco_ios</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.50.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.50.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.50.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cisco_ios_telnet</t>
+    <t xml:space="preserve">Interface gi2, ip address 10.1.2.1 255.255.255.0, no shutdown</t>
   </si>
 </sst>
 </file>
@@ -134,10 +126,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -154,30 +146,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -187,4 +155,36 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>